--- a/console/Elastic-Compute/Virtual-Machine/components/billLimit.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/components/billLimit.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>tips_one</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,6 +235,50 @@
       </rPr>
       <t>取消</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建按配置计费，需余额不低于xxx元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To create Pay By Configuration, the balance shall be no less than ¥ xxx.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>您的余额不足</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>xxx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元，请先充值</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your balance is less than ¥ xxx  , please recharge first.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -242,7 +286,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +313,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -290,9 +341,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -597,20 +663,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.875" style="1" customWidth="1"/>
-    <col min="2" max="4" width="21.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,8 +689,14 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -631,8 +706,10 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="3"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -642,8 +719,10 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="3"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -654,7 +733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -665,7 +744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -676,7 +755,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -686,8 +765,14 @@
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -697,8 +782,10 @@
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -709,7 +796,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -720,7 +807,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -732,6 +819,12 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
